--- a/THIERCELIEUX.xlsx
+++ b/THIERCELIEUX.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="CARDS" sheetId="1" r:id="rId1"/>
-    <sheet name="s" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CARDS!$A$1:$D$4</definedName>
@@ -23,52 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
-  <si>
-    <t>Catherine CHIROL</t>
-  </si>
-  <si>
-    <t>Philippe SADOT</t>
-  </si>
-  <si>
-    <t>Patrick ANSELMET</t>
-  </si>
-  <si>
-    <t>Who 1</t>
-  </si>
-  <si>
-    <t>Who 2</t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t>Fender STRATOCASTER</t>
-  </si>
-  <si>
-    <t>Sandrine FAVIER</t>
-  </si>
-  <si>
-    <t>Clément ROULLET</t>
-  </si>
-  <si>
-    <t>François SADOT</t>
-  </si>
-  <si>
-    <t>Flan aux pruneaux</t>
-  </si>
-  <si>
-    <t>Başak TANER</t>
-  </si>
-  <si>
-    <t>Agathe SADOT</t>
-  </si>
-  <si>
-    <t>Ugo TORACCA</t>
-  </si>
-  <si>
-    <t>Hélène SADOT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Nom</t>
   </si>
@@ -85,18 +39,12 @@
     <t>Maximum</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>1 fois</t>
   </si>
   <si>
-    <t>Appelé</t>
-  </si>
-  <si>
     <t>Chaque nuit</t>
   </si>
   <si>
@@ -104,6 +52,78 @@
   </si>
   <si>
     <t>Loups-Garous</t>
+  </si>
+  <si>
+    <t>Ange</t>
+  </si>
+  <si>
+    <t>Contextuel</t>
+  </si>
+  <si>
+    <t>Passif</t>
+  </si>
+  <si>
+    <t>Cupidon</t>
+  </si>
+  <si>
+    <t>Salvateur</t>
+  </si>
+  <si>
+    <t>Servante Dévouée</t>
+  </si>
+  <si>
+    <t>Chasseur</t>
+  </si>
+  <si>
+    <t>Petite fille</t>
+  </si>
+  <si>
+    <t>Spontané</t>
+  </si>
+  <si>
+    <t>Pouvoir</t>
+  </si>
+  <si>
+    <t>Abominable sectaire</t>
+  </si>
+  <si>
+    <t>Corbeau</t>
+  </si>
+  <si>
+    <t>Bouc émissaire</t>
+  </si>
+  <si>
+    <t>Villageois de confiance</t>
+  </si>
+  <si>
+    <t>Idiot du village</t>
+  </si>
+  <si>
+    <t>Ancien du village</t>
+  </si>
+  <si>
+    <t>Deux sœurs</t>
+  </si>
+  <si>
+    <t>Voyante</t>
+  </si>
+  <si>
+    <t>Juge</t>
+  </si>
+  <si>
+    <t>Voleur</t>
+  </si>
+  <si>
+    <t>Shérif</t>
+  </si>
+  <si>
+    <t>Loup blanc</t>
+  </si>
+  <si>
+    <t>Chien-loup</t>
+  </si>
+  <si>
+    <t>Trois frères</t>
   </si>
 </sst>
 </file>
@@ -153,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +182,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,75 +466,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -518,87 +882,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/THIERCELIEUX.xlsx
+++ b/THIERCELIEUX.xlsx
@@ -102,9 +102,6 @@
     <t>Ancien du village</t>
   </si>
   <si>
-    <t>Deux sœurs</t>
-  </si>
-  <si>
     <t>Voyante</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Trois frères</t>
+  </si>
+  <si>
+    <t>Deux soeurs</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>1</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>1</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>1</v>
